--- a/data/trans_dic/P19C01-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P19C01-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,75%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,27%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>93,91%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,19%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,49%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,08%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>94,39%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>21,9; 34,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>19,12; 30,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>90,69; 95,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,0</t>
+          <t>29,56; 43,27</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>25,57; 37,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>92,81; 96,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>27,54; 37,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>23,95; 32,64</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>92,74; 95,87</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,77%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,61%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,66%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,19%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,34%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,83%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,71%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,21%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,8%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,24%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>25,25; 34,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>25,18; 34,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>22,69; 32,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>35,76; 46,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>25,02; 34,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>25,02; 33,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>29,67; 39,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>38,08; 46,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>26,68; 32,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>26,01; 32,56</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>27,45; 34,2</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>37,67; 44,41</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,97%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,6%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,64%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,15%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,31%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,12%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,77%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,93%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,51%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,48%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>18,34; 29,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>28,84; 39,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>32,71; 43,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,55</t>
+          <t>35,71; 46,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>20,95; 30,69</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>31,21; 42,29</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,63</t>
+          <t>34,13; 44,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>37,19; 46,58</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>20,76; 28,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>30,96; 38,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>34,18; 42,09</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>37,99; 45,47</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,32%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,9%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,55%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,64%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>31,13; 42,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>21,03; 29,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,61</t>
+          <t>25,31; 35,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>27,12; 40,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>30,04; 40,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>24,36; 32,04</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>22,66; 32,33</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>28,68; 42,15</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>31,75; 39,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>24,13; 29,49</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>25,26; 32,52</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>29,67; 39,42</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,73%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,76%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,32%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,18%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,4%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,78%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,51%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,95%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>32,51; 47,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>32,49; 46,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,61</t>
+          <t>55,64; 72,95</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>85,1; 92,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,15</t>
+          <t>35,07; 50,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>38,63; 53,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,25</t>
+          <t>60,0; 75,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>87,12; 92,91</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>36,01; 46,9</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>37,93; 48,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>60,3; 71,72</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>87,47; 92,03</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,32%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,17%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,78%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,0%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,5%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,92%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,24%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,87%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 1,03</t>
+          <t>18,84; 32,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>24,97; 36,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,83</t>
+          <t>32,85; 46,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>36,49; 48,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>25,54; 38,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,75</t>
+          <t>33,08; 44,84</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>38,69; 51,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>46,73; 56,32</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>23,95; 32,71</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>30,85; 38,78</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>37,96; 47,23</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>42,7; 50,96</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,06%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,82%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>59,24%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,91%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,55%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,42%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,18%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,24%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,61%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,58%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>18,52; 26,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>26,56; 35,14</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>45,16; 54,41</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>54,74; 63,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>22,25; 29,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>35,45; 43,57</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>44,51; 53,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>29,17; 58,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>21,34; 26,94</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>32,14; 38,03</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>46,32; 52,95</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>39,31; 59,27</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,29%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,29%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,55%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,55%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,68%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,76%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,37%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,24%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,14%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>31,35; 39,16</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>23,65; 30,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>47,68; 55,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>51,47; 69,64</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>29,83; 38,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>27,91; 35,12</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>48,89; 56,81</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>70,55; 76,58</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>31,56; 37,24</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>27,33; 32,32</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>49,56; 55,07</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>61,85; 72,28</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,82%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,43%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,78%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,49%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,39%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,23%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,37%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,25%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,65%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,12%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,89%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>27,98; 31,76</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>27,62; 31,15</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>38,88; 42,61</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>53,35; 58,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>29,66; 33,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>32,42; 36,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>41,39; 45,31</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>50,54; 59,6</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>29,28; 31,96</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>30,77; 33,3</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>40,78; 43,59</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>53,59; 58,67</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C01-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>93,91%</t>
+          <t>94,3%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>17,56%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>94,85%</t>
+          <t>94,99%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>94,39%</t>
+          <t>94,63%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,48; 23,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>90,69; 95,85</t>
+          <t>91,39; 96,19</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,06; 22,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>92,81; 96,63</t>
+          <t>92,98; 96,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,85; 22,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,74; 95,87</t>
+          <t>93,0; 96,09</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,61%</t>
+          <t>40,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>41,83%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>41,24%</t>
+          <t>41,01%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,76; 46,42</t>
+          <t>35,1; 46,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,08; 46,13</t>
+          <t>38,1; 46,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>37,67; 44,41</t>
+          <t>37,34; 44,32</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>41,15%</t>
+          <t>41,93%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>41,77%</t>
+          <t>41,96%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>41,48%</t>
+          <t>41,94%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>35,71; 46,61</t>
+          <t>36,34; 47,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,19; 46,58</t>
+          <t>37,32; 46,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>37,99; 45,47</t>
+          <t>38,49; 46,1</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>24,9%</t>
+          <t>29,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,32%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>35,83%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>39,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>33,0%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>37,08%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,03; 29,04</t>
+          <t>24,54; 35,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,12; 40,45</t>
+          <t>26,66; 40,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,36; 32,04</t>
+          <t>30,33; 41,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>28,68; 42,15</t>
+          <t>26,93; 65,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,13; 29,49</t>
+          <t>29,09; 36,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,67; 39,42</t>
+          <t>29,26; 54,88</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>89,32%</t>
+          <t>89,31%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>90,48%</t>
+          <t>90,37%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>89,95%</t>
+          <t>89,89%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>85,1; 92,27</t>
+          <t>85,07; 92,21</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>87,12; 92,91</t>
+          <t>86,99; 92,76</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>87,47; 92,03</t>
+          <t>87,35; 91,96</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>42,17%</t>
+          <t>42,55%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>51,5%</t>
+          <t>51,54%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>46,87%</t>
+          <t>46,98%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>36,49; 48,02</t>
+          <t>36,63; 48,41</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>46,73; 56,32</t>
+          <t>46,82; 56,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>42,7; 50,96</t>
+          <t>42,77; 51,09</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>59,24%</t>
+          <t>59,65%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>49,18%</t>
+          <t>43,03%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>53,58%</t>
+          <t>50,01%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>54,74; 63,83</t>
+          <t>55,07; 64,18</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>29,17; 58,62</t>
+          <t>19,78; 58,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>39,31; 59,27</t>
+          <t>30,6; 59,33</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>64,42%</t>
+          <t>50,05%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>69,14%</t>
+          <t>60,4%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>51,47; 69,64</t>
+          <t>23,63; 69,35</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>70,55; 76,58</t>
+          <t>70,63; 76,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>61,85; 72,28</t>
+          <t>37,27; 71,96</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>56,49%</t>
+          <t>53,39%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>57,25%</t>
+          <t>55,82%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>56,89%</t>
+          <t>54,65%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>53,35; 58,63</t>
+          <t>40,94; 58,29</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>50,54; 59,6</t>
+          <t>44,78; 60,11</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>53,59; 58,67</t>
+          <t>47,23; 58,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P19C01-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C01-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>21,9; 34,98</t>
+          <t>21,88; 34,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14,48; 23,81</t>
+          <t>13,98; 23,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>19,12; 30,98</t>
+          <t>18,84; 30,56</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>91,39; 96,19</t>
+          <t>91,22; 96,33</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>29,56; 43,27</t>
+          <t>29,55; 43,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,06; 22,75</t>
+          <t>13,4; 23,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,57; 37,41</t>
+          <t>25,9; 37,72</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>92,98; 96,7</t>
+          <t>92,88; 96,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,54; 37,07</t>
+          <t>27,65; 37,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>14,85; 22,3</t>
+          <t>14,86; 21,93</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>23,95; 32,64</t>
+          <t>23,89; 32,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>93,0; 96,09</t>
+          <t>92,86; 95,95</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>25,25; 34,68</t>
+          <t>25,25; 34,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,18; 34,51</t>
+          <t>24,69; 34,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>22,69; 32,13</t>
+          <t>22,36; 31,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>35,1; 46,39</t>
+          <t>34,79; 45,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,02; 34,06</t>
+          <t>25,69; 34,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,02; 33,8</t>
+          <t>25,25; 33,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,67; 39,49</t>
+          <t>29,92; 39,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>38,1; 46,1</t>
+          <t>37,86; 45,72</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,68; 32,84</t>
+          <t>26,75; 33,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>26,01; 32,56</t>
+          <t>26,25; 32,7</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>27,45; 34,2</t>
+          <t>27,49; 34,28</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>37,34; 44,32</t>
+          <t>37,28; 44,42</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,34; 29,31</t>
+          <t>19,15; 30,03</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>28,84; 39,71</t>
+          <t>28,08; 38,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>32,71; 43,66</t>
+          <t>32,28; 43,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>36,34; 47,41</t>
+          <t>36,11; 48,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,95; 30,69</t>
+          <t>20,62; 30,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>31,21; 42,29</t>
+          <t>31,02; 41,39</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>34,13; 44,91</t>
+          <t>34,07; 45,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,32; 46,85</t>
+          <t>37,35; 47,04</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20,76; 28,57</t>
+          <t>21,24; 28,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,96; 38,93</t>
+          <t>31,2; 38,74</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>34,18; 42,09</t>
+          <t>34,58; 42,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>38,49; 46,1</t>
+          <t>38,02; 46,02</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,13; 42,87</t>
+          <t>30,77; 42,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,54; 35,94</t>
+          <t>24,25; 35,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,31; 35,63</t>
+          <t>25,54; 35,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>26,66; 40,41</t>
+          <t>26,11; 39,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,04; 40,75</t>
+          <t>30,17; 40,57</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,33; 41,35</t>
+          <t>30,73; 41,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>22,66; 32,33</t>
+          <t>22,27; 31,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>26,93; 65,17</t>
+          <t>27,61; 64,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,75; 39,93</t>
+          <t>31,97; 39,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,09; 36,75</t>
+          <t>29,27; 36,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>25,26; 32,52</t>
+          <t>25,21; 32,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>29,26; 54,88</t>
+          <t>29,74; 53,93</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>32,51; 47,36</t>
+          <t>32,82; 47,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,49; 46,88</t>
+          <t>32,37; 47,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,64; 72,95</t>
+          <t>54,98; 72,57</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>85,07; 92,21</t>
+          <t>84,92; 92,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>35,07; 50,04</t>
+          <t>35,61; 50,8</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>38,63; 53,25</t>
+          <t>39,29; 53,49</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>60,0; 75,19</t>
+          <t>61,06; 75,91</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>86,99; 92,76</t>
+          <t>87,03; 92,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>36,01; 46,9</t>
+          <t>36,24; 46,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>37,93; 48,07</t>
+          <t>37,7; 48,4</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>60,3; 71,72</t>
+          <t>60,34; 71,94</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>87,35; 91,96</t>
+          <t>87,53; 91,93</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>18,84; 32,75</t>
+          <t>19,08; 31,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>24,97; 36,95</t>
+          <t>24,74; 36,64</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,85; 46,38</t>
+          <t>33,01; 46,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>36,63; 48,41</t>
+          <t>36,43; 48,85</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>25,54; 38,71</t>
+          <t>25,68; 38,54</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>33,08; 44,84</t>
+          <t>33,27; 44,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>38,69; 51,63</t>
+          <t>38,66; 50,98</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>46,82; 56,34</t>
+          <t>46,61; 56,37</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>23,95; 32,71</t>
+          <t>23,59; 32,57</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>30,85; 38,78</t>
+          <t>30,63; 39,28</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>37,96; 47,23</t>
+          <t>38,24; 47,3</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>42,77; 51,09</t>
+          <t>43,2; 51,01</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>18,52; 26,0</t>
+          <t>18,1; 25,89</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,56; 35,14</t>
+          <t>26,65; 35,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>45,16; 54,41</t>
+          <t>45,14; 54,87</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>55,07; 64,18</t>
+          <t>54,9; 63,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>22,25; 29,72</t>
+          <t>22,28; 29,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>35,45; 43,57</t>
+          <t>35,53; 43,53</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>44,51; 53,73</t>
+          <t>44,85; 54,03</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>19,78; 58,37</t>
+          <t>20,78; 58,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>21,34; 26,94</t>
+          <t>21,59; 27,02</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>32,14; 38,03</t>
+          <t>32,21; 38,13</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>46,32; 52,95</t>
+          <t>46,35; 53,09</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>30,6; 59,33</t>
+          <t>31,08; 59,41</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>31,35; 39,16</t>
+          <t>31,4; 39,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>23,65; 30,71</t>
+          <t>23,34; 30,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>47,68; 55,61</t>
+          <t>47,34; 55,68</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>23,63; 69,35</t>
+          <t>21,55; 69,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>29,83; 38,09</t>
+          <t>29,86; 37,68</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>27,91; 35,12</t>
+          <t>28,11; 35,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>48,89; 56,81</t>
+          <t>48,59; 56,62</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>70,63; 76,49</t>
+          <t>70,56; 76,4</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>31,56; 37,24</t>
+          <t>31,75; 37,16</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>27,33; 32,32</t>
+          <t>26,96; 32,24</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>49,56; 55,07</t>
+          <t>49,75; 55,13</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>37,27; 71,96</t>
+          <t>34,11; 71,86</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>27,98; 31,76</t>
+          <t>28,17; 31,6</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>27,62; 31,15</t>
+          <t>27,58; 31,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>38,88; 42,61</t>
+          <t>38,95; 42,93</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>40,94; 58,29</t>
+          <t>41,03; 58,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>29,66; 33,15</t>
+          <t>29,68; 33,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>32,42; 36,02</t>
+          <t>32,54; 36,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>41,39; 45,31</t>
+          <t>41,56; 45,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>44,78; 60,11</t>
+          <t>44,31; 60,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>29,28; 31,96</t>
+          <t>29,41; 31,95</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>30,77; 33,3</t>
+          <t>30,56; 33,11</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>40,78; 43,59</t>
+          <t>40,75; 43,45</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>47,23; 58,63</t>
+          <t>47,86; 58,51</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo por su última visita al dentista fue una revisión o chequeo</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>790</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>53142</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>46788</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>59517</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>288007</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>72821</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>43955</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>77566</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>273202</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>125964</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>90743</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>137083</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>561209</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>41890; 65988</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>35030; 59387</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>46203; 74928</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>278623; 294217</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>59463; 87576</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>33526; 57768</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>63801; 92923</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>267126; 277809</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>108604; 146220</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>74432; 109855</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>117415; 158753</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>550670; 569038</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>443</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>121979</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>118771</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>97938</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>203817</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>130844</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>127509</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>135054</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>209826</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>252824</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>246281</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>232992</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>413643</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>103480; 143124</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>100321; 138562</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>81213; 114777</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>176365; 232431</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>113359; 150898</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>110292; 147982</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>117682; 155709</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>189889; 229283</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>227642; 281185</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>221350; 275703</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>207969; 259316</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>376020; 447956</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>56703</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>98665</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>109347</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>126278</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>73094</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>118345</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>121057</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>140676</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>129797</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>217010</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>230403</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>266954</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>45298; 71030</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>82450; 114329</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>93767; 125813</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>108753; 144611</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>59545; 89454</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>101662; 135611</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>104865; 138766</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>125222; 157708</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>111596; 151822</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>193877; 240737</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>206858; 255776</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>241959; 292932</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>98245</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>93583</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>100129</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>101828</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>105328</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>122841</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>93645</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>188711</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>203574</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>216423</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>193774</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>290539</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>82313; 113405</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>75926; 111531</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>84281; 118713</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>80985; 122251</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>90363; 121510</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>105332; 142707</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>77691; 111052</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>130721; 305632</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>181301; 225864</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>191965; 241484</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>171182; 218984</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>233048; 422556</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>67646</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>75562</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>77206</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>150421</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>74855</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>89858</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>98855</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>182811</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>142501</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>165420</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>176061</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>333232</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>55882; 81415</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>62160; 91166</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>65552; 86521</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>143028; 155322</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>61929; 88337</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>76447; 104083</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>88841; 110452</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>176052; 187497</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>124721; 160520</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>145764; 187131</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>159730; 190451</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>324482; 340810</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>46172</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>75715</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>91854</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>107964</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>64980</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>104032</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>111201</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>126977</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>111152</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>179747</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>203055</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>234941</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>36110; 60079</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>61844; 91587</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>77124; 107473</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>92438; 123945</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>52522; 78820</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>88117; 118769</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>95549; 125989</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>114814; 138877</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>92871; 128242</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>157683; 202217</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>183840; 227384</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>216040; 255084</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>102438</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>175713</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>220363</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>358151</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>139727</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>247580</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>240720</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>356420</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>242165</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>423293</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>461083</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>714572</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>84035; 120199</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>153254; 201889</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>199673; 242673</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>329615; 382437</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>120160; 160218</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>222429; 272467</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>218466; 263143</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>172156; 485145</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>216665; 271193</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>386875; 457977</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>430749; 493380</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>444028; 848841</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>758</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>664</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1246</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>186005</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>172970</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>330051</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>454744</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>198413</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>222493</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>365574</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>519216</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>384418</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>395463</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>695625</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>973959</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>165489; 208955</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>147936; 195826</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>303076; 356477</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>195825; 630886</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>176635; 222892</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>197407; 251263</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>335898; 391462</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>496698; 537773</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>355159; 415631</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>360233; 430834</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>662516; 734108</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>550046; 1158807</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>713</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>801</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1033</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>1822</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1199</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>3035</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1552</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1799</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>2232</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>4857</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>732331</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>857768</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1086404</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>1791211</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>860064</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1076613</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1243673</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>1997841</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1592395</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>1934381</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>2330077</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>3789051</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>692031; 776288</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>803968; 910699</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1037677; 1143813</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>1376402; 1951046</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>813224; 914498</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1023560; 1132517</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1191683; 1299392</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>1585742; 2149709</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1528215; 1660205</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>1851991; 2006171</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>2254138; 2403527</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>3318150; 4056925</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>